--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s0_P3_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s0_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1856.097992065635</v>
+        <v>1330.593917626344</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.31204711617629</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0516153221304</v>
+        <v>9.538244190470813</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.70756027154879</v>
+        <v>9.361415491259855</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1555.160000000039</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>265.97</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,23 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -918,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.20851569551316</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553446</v>
+        <v>16.1136520999787</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.37739353073907</v>
+        <v>24.81299701176106</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>5.427798817200209</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.43263169305758</v>
+        <v>8.577917217426545</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.56439651897804</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1015,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1029,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1043,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1057,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1068,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1082,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1096,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1110,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1124,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1144,7 +1133,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1249,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>134.3550000000147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8">
@@ -1260,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>150.2100000000004</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
@@ -1271,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>155.1200000000004</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1282,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>158.3950000000004</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
@@ -1293,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>155.3800000000005</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
@@ -1304,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>240.6150000000155</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -1315,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>260.0750000000012</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -1326,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>262.8450000000012</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -1337,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>270.3550000000013</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -1348,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>266.3300000000012</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -1359,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>203.335</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18">
@@ -1370,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>183.955</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19">
@@ -1381,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>202.29</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20">
@@ -1392,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>188.46</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
@@ -1403,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>199.3199999999993</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
@@ -1414,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>103.79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1425,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>91.44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1436,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1447,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>98.36499999999999</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1458,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>96.53999999999999</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1469,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.23000000001403</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -1480,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999978</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -1491,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999978</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -1502,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999977</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1513,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999979</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -1524,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>203.335</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33">
@@ -1535,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>183.955</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34">
@@ -1546,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>202.29</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35">
@@ -1557,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>188.46</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36">
@@ -1568,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>199.3199999999993</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37">
@@ -1579,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>240.6150000000155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1590,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>260.0750000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1601,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>262.8450000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1612,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>270.3550000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1623,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>266.3300000000012</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>53.33500000000001</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -1681,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>33.95500000000001</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -1692,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>52.28999999999999</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1703,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>38.46000000000001</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1714,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>49.31999999999934</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -1725,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>90.6150000000155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1736,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>110.0750000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1747,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>112.8450000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1758,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>120.3550000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1769,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>116.3300000000012</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1827,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1838,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1849,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1860,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1871,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1882,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1893,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1904,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1915,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1981,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -1992,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -2003,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -2014,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -2025,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -2036,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2047,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -2058,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -2069,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -2080,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2124,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2135,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2146,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2157,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2165,10 +2154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2176,10 +2165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2187,10 +2176,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2198,10 +2187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2209,10 +2198,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2223,53 +2212,9 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
